--- a/biology/Botanique/Madame_de_La_Roche-Lambert/Madame_de_La_Roche-Lambert.xlsx
+++ b/biology/Botanique/Madame_de_La_Roche-Lambert/Madame_de_La_Roche-Lambert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽMadame de La Roche-Lambert’ est un cultivar de rosiers introduit au commerce en 1851 par le rosiériste français Robert[1], d'Angers. Ce rosier mousseux est fameux chez les amateurs de roses anciennes.
+ʽMadame de La Roche-Lambert’ est un cultivar de rosiers introduit au commerce en 1851 par le rosiériste français Robert, d'Angers. Ce rosier mousseux est fameux chez les amateurs de roses anciennes.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson de ʽMadame de La Roche-Lambert’ est érigé, mais de port un peu lâche[2]. Il s'élève en moyenne à 150 cm. Son feuillage aux folioles épaisses est vert foncé, bordé de brun lorsqu'il est jeune. Ses rameaux sont très épineux, avec des aiguillons rouges sur les jeunes tiges.
-Il présente des fleurs doubles, pleines (26-40 pétales), de forme globuleuse au coloris rose foncé à amarante[3] et de 7 à 8 cm de diamètre[4]. Les sépales, les pédoncules et le calice sont recouverts d'une légère mousse verte. Les parfum des roses est citronné. La floraison est remontante à la fin août.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson de ʽMadame de La Roche-Lambert’ est érigé, mais de port un peu lâche. Il s'élève en moyenne à 150 cm. Son feuillage aux folioles épaisses est vert foncé, bordé de brun lorsqu'il est jeune. Ses rameaux sont très épineux, avec des aiguillons rouges sur les jeunes tiges.
+Il présente des fleurs doubles, pleines (26-40 pétales), de forme globuleuse au coloris rose foncé à amarante et de 7 à 8 cm de diamètre. Les sépales, les pédoncules et le calice sont recouverts d'une légère mousse verte. Les parfum des roses est citronné. La floraison est remontante à la fin août.
 C'est une variété toujours fort prisée aujourd'hui. Elle est rustique et supporte des températures hivernales à -20°.
 </t>
         </is>
